--- a/doc/FuncionariosFeriasSRH.xlsx
+++ b/doc/FuncionariosFeriasSRH.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="FuncionarioFérias" sheetId="1" r:id="rId1"/>
+    <sheet name="FuncionarioHistFérias" sheetId="1" r:id="rId1"/>
     <sheet name="SRH" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -605,7 +605,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A3,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A3,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Empresa</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A4,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A4,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Matricula</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A5,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A5,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="K6" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A6,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A6,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A7,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A7,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="K8" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A8,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A8,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.RefInicial</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="K9" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A9,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A9,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.RefFinal</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A10,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A10,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="K11" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A11,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A11,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Faltas</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="K12" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A12,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A12,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.DiasFerias</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="K13" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A13,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A13,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.AbonoPecuniario</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
         <v>14</v>
       </c>
       <c r="K14" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A14,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A14,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.13Salario</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>25</v>
       </c>
       <c r="K15" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A15,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A15,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.ConcedInicial</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         <v>25</v>
       </c>
       <c r="K16" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A16,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A16,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.ConcedFinal</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="K17" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A17,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A17,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="K18" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A18,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A18,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>14</v>
       </c>
       <c r="K19" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A19,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A19,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="K20" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A20,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A20,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A21,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A21,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A22,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A22,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A23,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A23,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>25</v>
       </c>
       <c r="K24" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A24,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A24,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="K25" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A25,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A25,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="K26" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A26,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A26,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
         <v>25</v>
       </c>
       <c r="K27" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A27,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A27,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
         <v>25</v>
       </c>
       <c r="K28" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A28,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A28,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>25</v>
       </c>
       <c r="K29" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A29,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A29,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>25</v>
       </c>
       <c r="K30" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A30,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A30,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="K31" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A31,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A31,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
         <v>25</v>
       </c>
       <c r="K32" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A32,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A32,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>25</v>
       </c>
       <c r="K33" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A33,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A33,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="K34" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A34,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A34,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
         <v>14</v>
       </c>
       <c r="K35" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A35,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A35,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>14</v>
       </c>
       <c r="K36" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A36,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A36,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="K37" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A37,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A37,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="K38" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A38,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A38,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>14</v>
       </c>
       <c r="K39" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A39,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A39,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A40,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A40,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>25</v>
       </c>
       <c r="K41" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A41,FuncionarioFérias!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A41,FuncionarioHistFérias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
